--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P40_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P40_trail1 Features.xlsx
@@ -4053,7 +4053,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.247209173903379</v>
+        <v>1.241513299146918</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.878275295759019</v>
@@ -4142,7 +4142,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.244867885016566</v>
+        <v>1.23791577224977</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.894021032610892</v>
@@ -4231,7 +4231,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.239921032544632</v>
+        <v>1.235200690534555</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.901987483690859</v>
@@ -4320,7 +4320,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.226259671738966</v>
+        <v>1.222150934663627</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.912307965070027</v>
@@ -4409,7 +4409,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.22270548498724</v>
+        <v>1.218233547379483</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.945498504377434</v>
@@ -4498,7 +4498,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.203371834820865</v>
+        <v>1.193041216664819</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.940322490601111</v>
@@ -4587,7 +4587,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.194010644145558</v>
+        <v>1.181247244100269</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.105350106551471</v>
@@ -4676,7 +4676,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.201205767246617</v>
+        <v>1.185142958529214</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.089859448256155</v>
@@ -4765,7 +4765,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.194398987271849</v>
+        <v>1.175878964432187</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.130964496952065</v>
@@ -4854,7 +4854,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.192359520202831</v>
+        <v>1.167121153158233</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.08834049617896</v>
@@ -4943,7 +4943,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.192887685018711</v>
+        <v>1.168263743289697</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.121555648275848</v>
@@ -5032,7 +5032,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.201920189285941</v>
+        <v>1.180531513494234</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.041495910420361</v>
@@ -5121,7 +5121,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.200490468147177</v>
+        <v>1.178945548022093</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.869044679196403</v>
@@ -5210,7 +5210,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.210114459872786</v>
+        <v>1.192319411454474</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.904522075103237</v>
@@ -5299,7 +5299,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.22054393747308</v>
+        <v>1.20323302652336</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.00402262880849</v>
@@ -5388,7 +5388,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.211511913893826</v>
+        <v>1.193016430771878</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.08006992285299</v>
@@ -5477,7 +5477,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.223278557871163</v>
+        <v>1.204439054300162</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.070718578016393</v>
@@ -5566,7 +5566,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.230054712252009</v>
+        <v>1.206538474396076</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.919577808841058</v>
@@ -5655,7 +5655,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.236069490168011</v>
+        <v>1.216339141466361</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.994403163575667</v>
@@ -5744,7 +5744,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.241592755326063</v>
+        <v>1.222309547064178</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.075168601190737</v>
@@ -5833,7 +5833,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.243648482838794</v>
+        <v>1.223082274910621</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.019494854391835</v>
@@ -5922,7 +5922,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.25271884530094</v>
+        <v>1.235531470719416</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.093075786828553</v>
@@ -6011,7 +6011,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.260174274262125</v>
+        <v>1.246373391396337</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.138798634834533</v>
@@ -6100,7 +6100,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.250568715777606</v>
+        <v>1.239829262972227</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.150001673895436</v>
@@ -6189,7 +6189,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.263139704781326</v>
+        <v>1.261154401065826</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.068938230823067</v>
@@ -6278,7 +6278,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.273882345518699</v>
+        <v>1.26672578283141</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.112047780239528</v>
@@ -6367,7 +6367,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.269529941992716</v>
+        <v>1.259918929206266</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.145640610446898</v>
@@ -6456,7 +6456,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.276825408117763</v>
+        <v>1.269687100857545</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.130903879349381</v>
@@ -6545,7 +6545,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.281558255272628</v>
+        <v>1.270691317167646</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.127222106520667</v>
@@ -6634,7 +6634,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.29211281204316</v>
+        <v>1.282853255362038</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.04301057976729</v>
@@ -6723,7 +6723,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.308850764363362</v>
+        <v>1.292153644256295</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.131067602675211</v>
@@ -6812,7 +6812,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.301156835574001</v>
+        <v>1.28146064174756</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.095142868238411</v>
@@ -6901,7 +6901,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.314808798023905</v>
+        <v>1.296336022438489</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.122501552560836</v>
@@ -6990,7 +6990,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.302963519797312</v>
+        <v>1.283537292962615</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.137730825469097</v>
@@ -7079,7 +7079,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.275282739888977</v>
+        <v>1.258256896455979</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.11701137916353</v>
@@ -7168,7 +7168,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.304459454802377</v>
+        <v>1.282753072251047</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.825227807282842</v>
@@ -7257,7 +7257,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.286591431100695</v>
+        <v>1.260466735826521</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.060237618480451</v>
@@ -7346,7 +7346,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.267112127077767</v>
+        <v>1.246956859763078</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.066646658664904</v>
@@ -7435,7 +7435,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.278931526342648</v>
+        <v>1.255912682795861</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.038714263055774</v>
@@ -7524,7 +7524,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.25068569371417</v>
+        <v>1.226758760838802</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.0698050907033</v>
@@ -7613,7 +7613,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.25376645382276</v>
+        <v>1.229884683443943</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.059270529788939</v>
@@ -7702,7 +7702,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.248977394425946</v>
+        <v>1.224245317141499</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.035487939972446</v>
@@ -7988,7 +7988,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.271573636444129</v>
+        <v>1.255016903336639</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.030053332900711</v>
@@ -8077,7 +8077,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.264293439556224</v>
+        <v>1.248298103334311</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.03043321512103</v>
@@ -8166,7 +8166,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.251594564704473</v>
+        <v>1.23727093021357</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.048000490217168</v>
@@ -8255,7 +8255,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.228162894192468</v>
+        <v>1.21480591117067</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.104404693442527</v>
@@ -8344,7 +8344,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.221099948680061</v>
+        <v>1.20878045717176</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.077722859408778</v>
@@ -8433,7 +8433,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.202294528891603</v>
+        <v>1.185566804164248</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.041023785383745</v>
@@ -8522,7 +8522,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.181865568832186</v>
+        <v>1.164806282201031</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.105728875068403</v>
@@ -8611,7 +8611,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.181793728408569</v>
+        <v>1.163844330907413</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.089623905891169</v>
@@ -8700,7 +8700,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.172267775543221</v>
+        <v>1.152348397460202</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.090021748831401</v>
@@ -8789,7 +8789,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.170083017392926</v>
+        <v>1.143288139104067</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.028441223197013</v>
@@ -8878,7 +8878,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.168617532123037</v>
+        <v>1.14190670690406</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.075037576000827</v>
@@ -8967,7 +8967,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.172794632511452</v>
+        <v>1.148317991308464</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.945472975495417</v>
@@ -9056,7 +9056,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.169617584346319</v>
+        <v>1.145120053569474</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.822207601644075</v>
@@ -9145,7 +9145,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.174234494678539</v>
+        <v>1.152412846054766</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.821214305164049</v>
@@ -9234,7 +9234,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.182777990829661</v>
+        <v>1.161907979146722</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.901578593035808</v>
@@ -9323,7 +9323,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.16959429652666</v>
+        <v>1.148229092310942</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.974282958704587</v>
@@ -9412,7 +9412,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.175333782380811</v>
+        <v>1.153556707700485</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.972757505821404</v>
@@ -9501,7 +9501,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.186876244429989</v>
+        <v>1.158843787368424</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.838554367452999</v>
@@ -9590,7 +9590,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.185921694471635</v>
+        <v>1.161740638778742</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.91700218413474</v>
@@ -9679,7 +9679,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.186877661084298</v>
+        <v>1.163065220321968</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.975479615161061</v>
@@ -9768,7 +9768,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.188642658072792</v>
+        <v>1.162703468442526</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.955200146426822</v>
@@ -9857,7 +9857,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.186822744035481</v>
+        <v>1.161593460872418</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.986250739473028</v>
@@ -9946,7 +9946,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.183079381920793</v>
+        <v>1.15643056901647</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.000755277093619</v>
@@ -10035,7 +10035,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.171455561432344</v>
+        <v>1.14790321253588</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.025672050008374</v>
@@ -10124,7 +10124,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.166949494088284</v>
+        <v>1.151091698628891</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.949486355891466</v>
@@ -10213,7 +10213,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.178349542992151</v>
+        <v>1.157073923550408</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.982957523967929</v>
@@ -10302,7 +10302,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.177709082803151</v>
+        <v>1.155758701025196</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.001042702826213</v>
@@ -10391,7 +10391,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.181162425477091</v>
+        <v>1.161919323997332</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.989574708012327</v>
@@ -10480,7 +10480,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.189901193180895</v>
+        <v>1.168191131417022</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.004043913760374</v>
@@ -10569,7 +10569,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.198847118656812</v>
+        <v>1.178822821265334</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.903543699788371</v>
@@ -10658,7 +10658,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.225620056038259</v>
+        <v>1.202170044254715</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.946882028294747</v>
@@ -10747,7 +10747,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.227322101792379</v>
+        <v>1.199727773011056</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.962261498586819</v>
@@ -10836,7 +10836,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.231166187082734</v>
+        <v>1.208825483257794</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.963298936099989</v>
@@ -10925,7 +10925,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.225058638482116</v>
+        <v>1.201006415272837</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.995575092108782</v>
@@ -11014,7 +11014,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.205492399108517</v>
+        <v>1.182498862857367</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.999486767974539</v>
@@ -11103,7 +11103,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.232487306623474</v>
+        <v>1.206490308438107</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.732735140493108</v>
@@ -11192,7 +11192,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.225277290325462</v>
+        <v>1.196329642219222</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.991009310088083</v>
@@ -11281,7 +11281,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.214649873792204</v>
+        <v>1.195297118495396</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.97398526333273</v>
@@ -11370,7 +11370,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.229906128268151</v>
+        <v>1.208753871763888</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.991763541545245</v>
@@ -11459,7 +11459,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.211483354565734</v>
+        <v>1.190336201677795</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.002415027239825</v>
@@ -11548,7 +11548,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.216149672143204</v>
+        <v>1.19534180402175</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.996260707672307</v>
@@ -11637,7 +11637,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.213527862538044</v>
+        <v>1.191053338992308</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.011367673209457</v>
@@ -11923,7 +11923,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.320158837532732</v>
+        <v>1.312021732543979</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.09751628985284</v>
@@ -12012,7 +12012,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.316470059245459</v>
+        <v>1.309067104090389</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.073103855933823</v>
@@ -12101,7 +12101,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.302381218472413</v>
+        <v>1.294193581160765</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.132693929205355</v>
@@ -12190,7 +12190,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.276684503646665</v>
+        <v>1.270170381649517</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.185244261742214</v>
@@ -12279,7 +12279,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.270273899585928</v>
+        <v>1.26489095273013</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.149564801843188</v>
@@ -12368,7 +12368,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.232000623076744</v>
+        <v>1.219328075837668</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.071191270495595</v>
@@ -12457,7 +12457,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.212224105036568</v>
+        <v>1.195942785823743</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.13895261712796</v>
@@ -12546,7 +12546,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.202560333550923</v>
+        <v>1.186320722122528</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.10996331648578</v>
@@ -12635,7 +12635,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.18973425105883</v>
+        <v>1.170046343089144</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.136799630187355</v>
@@ -12724,7 +12724,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.184259972161794</v>
+        <v>1.158271705154366</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.055296937604639</v>
@@ -12813,7 +12813,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.182641745927349</v>
+        <v>1.156670748319203</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.109513595607611</v>
@@ -12902,7 +12902,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.187147110506974</v>
+        <v>1.163466709162247</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.989231193638459</v>
@@ -12991,7 +12991,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.183214625829081</v>
+        <v>1.159037514418375</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.838497109469181</v>
@@ -13080,7 +13080,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.18886050494792</v>
+        <v>1.166921187828237</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.850654942565462</v>
@@ -13169,7 +13169,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.200213640504474</v>
+        <v>1.177138975068382</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.929956264651113</v>
@@ -13258,7 +13258,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.186226597028706</v>
+        <v>1.161879045999853</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.00867630931441</v>
@@ -13347,7 +13347,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.191130620434484</v>
+        <v>1.165483647033422</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.009920841674715</v>
@@ -13436,7 +13436,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.199918367366616</v>
+        <v>1.170464070564717</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.870381407650882</v>
@@ -13525,7 +13525,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.202647008517423</v>
+        <v>1.176686988950488</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.9561344650441</v>
@@ -13614,7 +13614,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.205533078572429</v>
+        <v>1.178640135403642</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.029787594278715</v>
@@ -13703,7 +13703,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.207106039175855</v>
+        <v>1.179580033599234</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.982472389103616</v>
@@ -13792,7 +13792,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.205752181364537</v>
+        <v>1.180314641487772</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.029563212269721</v>
@@ -13881,7 +13881,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.2025930144448</v>
+        <v>1.176723536406833</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.055666680194253</v>
@@ -13970,7 +13970,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.19111509018029</v>
+        <v>1.168189873895958</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.050912999321608</v>
@@ -14059,7 +14059,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.188106368322721</v>
+        <v>1.171992442594791</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.004631813360915</v>
@@ -14148,7 +14148,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.197418787953625</v>
+        <v>1.175280754938125</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.041523246085617</v>
@@ -14237,7 +14237,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.198642045724224</v>
+        <v>1.176184775426085</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.059462913879059</v>
@@ -14326,7 +14326,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.205046873510049</v>
+        <v>1.185160202120091</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.042151764064045</v>
@@ -14415,7 +14415,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.208281906081216</v>
+        <v>1.184205061295903</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.050239835199638</v>
@@ -14504,7 +14504,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.218125353055741</v>
+        <v>1.196750195949843</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.942428632876622</v>
@@ -14593,7 +14593,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.241135969332307</v>
+        <v>1.214517241131325</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.981595757482368</v>
@@ -14682,7 +14682,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.240266259532561</v>
+        <v>1.20957301493694</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.982647306621457</v>
@@ -14771,7 +14771,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.247759118616065</v>
+        <v>1.220793523581096</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.992909529093585</v>
@@ -14860,7 +14860,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.239557028193626</v>
+        <v>1.211647426586797</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.012254055692037</v>
@@ -14949,7 +14949,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.218141469197824</v>
+        <v>1.193136094446304</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.053635847825669</v>
@@ -15038,7 +15038,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.244326736151277</v>
+        <v>1.215460698835359</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.751779208847393</v>
@@ -15127,7 +15127,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.236907053111781</v>
+        <v>1.204868982298161</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.991950467531641</v>
@@ -15216,7 +15216,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.227625755942549</v>
+        <v>1.204819814081948</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.971724156442967</v>
@@ -15305,7 +15305,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.243219458781589</v>
+        <v>1.216899647326831</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.982316499361591</v>
@@ -15394,7 +15394,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.22259760019809</v>
+        <v>1.198145561057129</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.993605892982007</v>
@@ -15483,7 +15483,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.22868820352491</v>
+        <v>1.204676920068663</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.013886655137103</v>
@@ -15572,7 +15572,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.222678551622378</v>
+        <v>1.196526040903254</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.006799820559831</v>
@@ -15858,7 +15858,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.331105723488275</v>
+        <v>1.324464270257665</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.094052899917648</v>
@@ -15947,7 +15947,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.324407929000492</v>
+        <v>1.31719731013222</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.103408647493772</v>
@@ -16036,7 +16036,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.314028807468208</v>
+        <v>1.307978623874971</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.121948240061602</v>
@@ -16125,7 +16125,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.289090358735068</v>
+        <v>1.283817167037036</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.177848930227429</v>
@@ -16214,7 +16214,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.283439311413814</v>
+        <v>1.28026695612721</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.137177012689835</v>
@@ -16303,7 +16303,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.250670277079203</v>
+        <v>1.242559262050037</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.140199937237264</v>
@@ -16392,7 +16392,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.231580714845897</v>
+        <v>1.220613066917778</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.16100860639134</v>
@@ -16481,7 +16481,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.220237058749802</v>
+        <v>1.207592094951981</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.12895670728652</v>
@@ -16570,7 +16570,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.207487061475579</v>
+        <v>1.191891013045998</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.141033568050728</v>
@@ -16659,7 +16659,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.198649769123528</v>
+        <v>1.174485318557576</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.094235383379648</v>
@@ -16748,7 +16748,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.197974260175602</v>
+        <v>1.172898339997822</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.125604455943497</v>
@@ -16837,7 +16837,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.202462115201532</v>
+        <v>1.179267243759853</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.012249202395668</v>
@@ -16926,7 +16926,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.199723360001898</v>
+        <v>1.176465477897331</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.853282003502938</v>
@@ -17015,7 +17015,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.207797746816416</v>
+        <v>1.187688492486867</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.869281398162641</v>
@@ -17104,7 +17104,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.218541492348024</v>
+        <v>1.1956628724306</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.953186359184463</v>
@@ -17193,7 +17193,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.201772524580831</v>
+        <v>1.178191593505686</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.043537548226467</v>
@@ -17282,7 +17282,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.208965541277504</v>
+        <v>1.185236924983612</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.049305912496818</v>
@@ -17371,7 +17371,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.213341709172015</v>
+        <v>1.1843122461333</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.88459320982307</v>
@@ -17460,7 +17460,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.215419794373638</v>
+        <v>1.189449506141824</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.968658833709334</v>
@@ -17549,7 +17549,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.215472620724319</v>
+        <v>1.187153609678039</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.028133222547287</v>
@@ -17638,7 +17638,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.216943420017224</v>
+        <v>1.187392586402213</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.009450887330479</v>
@@ -17727,7 +17727,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.216022890894184</v>
+        <v>1.187940167665296</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.03606481308992</v>
@@ -17816,7 +17816,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.209586608208664</v>
+        <v>1.181093099904817</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.060578636096231</v>
@@ -17905,7 +17905,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.196710849931945</v>
+        <v>1.170010281241575</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.054807302823608</v>
@@ -17994,7 +17994,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.194680449908762</v>
+        <v>1.174247854526541</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.997013278919372</v>
@@ -18083,7 +18083,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.20507506533494</v>
+        <v>1.180545384492502</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.041553157365488</v>
@@ -18172,7 +18172,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.205714308023358</v>
+        <v>1.181849152002171</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.062353554313314</v>
@@ -18261,7 +18261,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.212272709164535</v>
+        <v>1.190020220194992</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.060722708818526</v>
@@ -18350,7 +18350,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.216289458535442</v>
+        <v>1.188316058827202</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.05551519264016</v>
@@ -18439,7 +18439,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.223935191792816</v>
+        <v>1.200515932451003</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.953644144074794</v>
@@ -18528,7 +18528,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.247855789249988</v>
+        <v>1.219545178959839</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.993429678626354</v>
@@ -18617,7 +18617,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.246929766075077</v>
+        <v>1.213977648145615</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.986285509586236</v>
@@ -18706,7 +18706,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.256120371133521</v>
+        <v>1.224157173215395</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.995717839258603</v>
@@ -18795,7 +18795,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.248899148749535</v>
+        <v>1.217422204355953</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.008459235425912</v>
@@ -18884,7 +18884,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.227911571826803</v>
+        <v>1.200536214826659</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.051514868558644</v>
@@ -18973,7 +18973,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.255720509974383</v>
+        <v>1.224513209683852</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.760263533691171</v>
@@ -19062,7 +19062,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.245907544274371</v>
+        <v>1.211488668941081</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.001455231238384</v>
@@ -19151,7 +19151,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.236878248708524</v>
+        <v>1.212104573416198</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.98302072460526</v>
@@ -19240,7 +19240,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.2531130517482</v>
+        <v>1.226178372287381</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.995876340101899</v>
@@ -19329,7 +19329,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.231278389403522</v>
+        <v>1.206282425375533</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.005422095987009</v>
@@ -19418,7 +19418,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.234472479254474</v>
+        <v>1.209427155854936</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.015963927873263</v>
@@ -19507,7 +19507,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.228409770652673</v>
+        <v>1.201255883314882</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.031165325341148</v>
@@ -19793,7 +19793,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.227792106512781</v>
+        <v>1.190544127853455</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.91526039386752</v>
@@ -19882,7 +19882,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.219284035113805</v>
+        <v>1.183648292572917</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.921925428430268</v>
@@ -19971,7 +19971,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.205259276578692</v>
+        <v>1.171843589865198</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.930200561212027</v>
@@ -20060,7 +20060,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.184356553488673</v>
+        <v>1.153221269515863</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.997417032489138</v>
@@ -20149,7 +20149,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.177181634176333</v>
+        <v>1.148247847671983</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.965311158259137</v>
@@ -20238,7 +20238,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.164233749913673</v>
+        <v>1.135431655594953</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.977440489290763</v>
@@ -20327,7 +20327,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.15007112755805</v>
+        <v>1.121524722933423</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.043650156173275</v>
@@ -20416,7 +20416,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.1399157345858</v>
+        <v>1.113180414017405</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.004843472879229</v>
@@ -20505,7 +20505,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.132426736226643</v>
+        <v>1.105351752569608</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.018121746418157</v>
@@ -20594,7 +20594,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.13566213702403</v>
+        <v>1.102954256562545</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.972689904783436</v>
@@ -20683,7 +20683,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.134255420378882</v>
+        <v>1.101193284301393</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.021774595827727</v>
@@ -20772,7 +20772,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.135205267555034</v>
+        <v>1.104486121375448</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.905760188336114</v>
@@ -20861,7 +20861,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.132505457036221</v>
+        <v>1.101014382870423</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.776337794172605</v>
@@ -20950,7 +20950,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.127283965525093</v>
+        <v>1.097548626767244</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.7651899992693</v>
@@ -21039,7 +21039,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.13178847579079</v>
+        <v>1.10225499626859</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.833989806167875</v>
@@ -21128,7 +21128,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.126262113251057</v>
+        <v>1.095927724571619</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.911699826113973</v>
@@ -21217,7 +21217,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.129116545429617</v>
+        <v>1.096494217173853</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.895809567220426</v>
@@ -21306,7 +21306,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.146938945669879</v>
+        <v>1.110530068645217</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.79880510018139</v>
@@ -21395,7 +21395,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.141057805731235</v>
+        <v>1.107543786174679</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.862341815422101</v>
@@ -21484,7 +21484,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.138452848948758</v>
+        <v>1.105207683778837</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.906720026819855</v>
@@ -21573,7 +21573,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.143295774475377</v>
+        <v>1.10853271616164</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.910357144940909</v>
@@ -21662,7 +21662,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.14065281507125</v>
+        <v>1.107509512564293</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.926527575941688</v>
@@ -21751,7 +21751,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.141887137697259</v>
+        <v>1.108461099316165</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.935087087289901</v>
@@ -21840,7 +21840,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.132301976257026</v>
+        <v>1.100083667323237</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.948391082845024</v>
@@ -21929,7 +21929,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.119959883362338</v>
+        <v>1.09293556702615</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.874014818955445</v>
@@ -22018,7 +22018,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.131775603044803</v>
+        <v>1.099568999596668</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.915635146541806</v>
@@ -22107,7 +22107,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.132671611411713</v>
+        <v>1.100202283326924</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.93042133236424</v>
@@ -22196,7 +22196,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.135725313432082</v>
+        <v>1.106903826205985</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.920984750338953</v>
@@ -22285,7 +22285,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.149444321835752</v>
+        <v>1.117335882694685</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.956720963283224</v>
@@ -22374,7 +22374,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.156212924565303</v>
+        <v>1.125591393708646</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.864541936156949</v>
@@ -22463,7 +22463,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.1815298623766</v>
+        <v>1.14826479711222</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.904842343550606</v>
@@ -22552,7 +22552,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.192837855811556</v>
+        <v>1.156643351919854</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.925235046091625</v>
@@ -22641,7 +22641,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.187217943253625</v>
+        <v>1.152704587860184</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.914197866364969</v>
@@ -22730,7 +22730,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.185904125582146</v>
+        <v>1.151144568775666</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.94417167449688</v>
@@ -22819,7 +22819,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.172851149744826</v>
+        <v>1.139591102190531</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.95000187229312</v>
@@ -22908,7 +22908,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.201584040799661</v>
+        <v>1.165847373724189</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.69829670531355</v>
@@ -22997,7 +22997,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.19767542617405</v>
+        <v>1.157804971820142</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.934102535260047</v>
@@ -23086,7 +23086,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.184016292861871</v>
+        <v>1.154102276191915</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.918777858115323</v>
@@ -23175,7 +23175,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.195503615219006</v>
+        <v>1.163712259507059</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.923911467519101</v>
@@ -23264,7 +23264,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.182957837379181</v>
+        <v>1.153095631086091</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.943567665107487</v>
@@ -23353,7 +23353,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.184391146473005</v>
+        <v>1.15432143041056</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.944929393637756</v>
@@ -23442,7 +23442,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.18291989795795</v>
+        <v>1.151447389329317</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.960153503959969</v>
@@ -23728,7 +23728,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.267817515166302</v>
+        <v>1.259222750112852</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.052633588079528</v>
@@ -23817,7 +23817,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.264900189907841</v>
+        <v>1.256466609646642</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.072367625942503</v>
@@ -23906,7 +23906,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.256733624334199</v>
+        <v>1.250722568299278</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.075365885473597</v>
@@ -23995,7 +23995,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.241985939838551</v>
+        <v>1.235537665516191</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.125822660534843</v>
@@ -24084,7 +24084,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.240529073381301</v>
+        <v>1.234357983112381</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.047383981512657</v>
@@ -24173,7 +24173,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.211224970074431</v>
+        <v>1.191784638115446</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.958089231192063</v>
@@ -24262,7 +24262,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.209029530887494</v>
+        <v>1.18741334833926</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.141066838284637</v>
@@ -24351,7 +24351,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.210319116581433</v>
+        <v>1.187658898075675</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.116693324507538</v>
@@ -24440,7 +24440,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.201723045930345</v>
+        <v>1.177129220316191</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.145383842724076</v>
@@ -24529,7 +24529,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.199067325468707</v>
+        <v>1.16807687579426</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.08074934211801</v>
@@ -24618,7 +24618,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.195303580923395</v>
+        <v>1.163557342982035</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.137002717430155</v>
@@ -24707,7 +24707,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.199803140510015</v>
+        <v>1.170173082055735</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.042697429629807</v>
@@ -24796,7 +24796,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.192165392350031</v>
+        <v>1.164928168453668</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.861628078722995</v>
@@ -24885,7 +24885,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.200857240350252</v>
+        <v>1.175379511028253</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.866698209763715</v>
@@ -24974,7 +24974,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.208872162610688</v>
+        <v>1.182640771560964</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.9563161828996</v>
@@ -25063,7 +25063,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.195068452055082</v>
+        <v>1.16768958133779</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.010411353113431</v>
@@ -25152,7 +25152,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.203468245186567</v>
+        <v>1.17405339748937</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.057015354713379</v>
@@ -25241,7 +25241,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.211208145719582</v>
+        <v>1.177360531493094</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.894604674866232</v>
@@ -25330,7 +25330,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.214425881672068</v>
+        <v>1.183664796644813</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.983171869436235</v>
@@ -25419,7 +25419,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.216272034713448</v>
+        <v>1.185315660886797</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.044433470024178</v>
@@ -25508,7 +25508,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.217265044675616</v>
+        <v>1.185918800177926</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.01311705252434</v>
@@ -25597,7 +25597,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.218660400041649</v>
+        <v>1.190477488173264</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.051159049964012</v>
@@ -25686,7 +25686,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.213836319025767</v>
+        <v>1.185603184883539</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.073787004277329</v>
@@ -25775,7 +25775,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.202286661311213</v>
+        <v>1.176743004525483</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.09206476142921</v>
@@ -25864,7 +25864,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.205362683484503</v>
+        <v>1.187576184308442</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.016153840955961</v>
@@ -25953,7 +25953,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.217427869433638</v>
+        <v>1.194295878947247</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.068474460011673</v>
@@ -26042,7 +26042,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.2144537063811</v>
+        <v>1.190369108664971</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.094297820066993</v>
@@ -26131,7 +26131,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.219442459364584</v>
+        <v>1.198349707672755</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.080046575618659</v>
@@ -26220,7 +26220,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.224621097346469</v>
+        <v>1.198207016811454</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.082048237821408</v>
@@ -26309,7 +26309,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.234066326778986</v>
+        <v>1.210091635222099</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.007942151729349</v>
@@ -26398,7 +26398,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.258722391168705</v>
+        <v>1.227970407727454</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.059065575383645</v>
@@ -26487,7 +26487,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.254890351625865</v>
+        <v>1.222003804619604</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.028140942841672</v>
@@ -26576,7 +26576,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.262163373022629</v>
+        <v>1.230594396056455</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.05924759168933</v>
@@ -26665,7 +26665,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.252692452744235</v>
+        <v>1.220812572409192</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.070677946971796</v>
@@ -26754,7 +26754,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.231478993672023</v>
+        <v>1.203133771685577</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.076734780167653</v>
@@ -26843,7 +26843,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.257060905522141</v>
+        <v>1.224623012735386</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.781981479733344</v>
@@ -26932,7 +26932,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.24419351410265</v>
+        <v>1.207366813488012</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.036074419412798</v>
@@ -27021,7 +27021,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.23495775366651</v>
+        <v>1.207007177004077</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.999049435420772</v>
@@ -27110,7 +27110,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.250254656913851</v>
+        <v>1.220254500613563</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.011614026583409</v>
@@ -27199,7 +27199,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.226780887774201</v>
+        <v>1.196686468301115</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.027204947802348</v>
@@ -27288,7 +27288,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.232823113345211</v>
+        <v>1.202595688239259</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.033475995647033</v>
@@ -27377,7 +27377,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.228096133657959</v>
+        <v>1.197122773435025</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.005000656198249</v>
